--- a/ANACOND_Python_Django_コマンドメモ.xlsx
+++ b/ANACOND_Python_Django_コマンドメモ.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuras\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuras\Desktop\ファイル共有\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61DDF3F9-C23F-43C5-AB68-A22FE9959F79}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5422EF2-5219-4693-B5CF-85BE13B697EA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13224" windowHeight="5544" xr2:uid="{0A7758F9-BA90-4236-B780-6FD89E916E8D}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>■ANACONDAインストール</t>
     <phoneticPr fontId="1"/>
@@ -161,6 +161,24 @@
     <t xml:space="preserve">仮想環境上で【python manage.py createsuperuser】: </t>
     <rPh sb="0" eb="5">
       <t>カソウカンキョウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■インストール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仮想環境上で【pip install pillow==4.3】: pillowのバージョン4.3をインストールする。</t>
+    <rPh sb="0" eb="5">
+      <t>カソウカンキョウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイグレートの実行</t>
+    <rPh sb="7" eb="9">
+      <t>ジッコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -536,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A23FA02-37F8-4F4C-831C-FBC7D5017466}">
-  <dimension ref="A1:A21"/>
+  <dimension ref="A1:A27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
@@ -627,6 +645,21 @@
         <v>15</v>
       </c>
     </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A23" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A26" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A27" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
